--- a/Memoir/chapters/design/tables/functPhys.xlsx
+++ b/Memoir/chapters/design/tables/functPhys.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="7">
   <si>
     <t>Req. ID</t>
   </si>
@@ -28,39 +28,6 @@
   </si>
   <si>
     <t>Function ID</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>Peripheral</t>
-  </si>
-  <si>
-    <t>Sensor mount</t>
-  </si>
-  <si>
-    <t>Computer mount</t>
-  </si>
-  <si>
-    <t>Sensors</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>GCS connector</t>
-  </si>
-  <si>
-    <t>UAV connector</t>
-  </si>
-  <si>
-    <t>Sensor operator</t>
-  </si>
-  <si>
-    <t>Signal processor</t>
-  </si>
-  <si>
-    <t>Actuation calculator</t>
   </si>
   <si>
     <t>All</t>
@@ -441,17 +408,19 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -466,38 +435,38 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3.1</v>
+      </c>
+      <c r="G3">
+        <v>3.2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J3">
+        <v>5.2</v>
+      </c>
+      <c r="K3">
+        <v>5.3</v>
+      </c>
+      <c r="L3">
+        <v>5.4</v>
+      </c>
+      <c r="M3">
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -505,37 +474,37 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -543,37 +512,37 @@
         <v>1.2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -581,10 +550,10 @@
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -592,16 +561,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -612,22 +581,22 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -638,22 +607,22 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -664,25 +633,25 @@
         <v>4.3</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -693,16 +662,16 @@
         <v>5.2</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -713,16 +682,16 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -730,22 +699,22 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -753,22 +722,22 @@
         <v>4.2</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -776,7 +745,7 @@
         <v>4.3</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -787,16 +756,16 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -807,16 +776,16 @@
         <v>5.2</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -827,19 +796,19 @@
         <v>6.1</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -850,16 +819,16 @@
         <v>1.2</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -870,37 +839,37 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -911,22 +880,22 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -937,16 +906,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -957,19 +926,19 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -977,16 +946,16 @@
         <v>8.1</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -997,10 +966,10 @@
         <v>1.2</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1008,22 +977,22 @@
         <v>9.1</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1031,22 +1000,22 @@
         <v>10.1</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1054,22 +1023,22 @@
         <v>11.1</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
